--- a/Outputs/results1995/QTAR_logReport1995(C).xlsx
+++ b/Outputs/results1995/QTAR_logReport1995(C).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="151">
   <si>
     <t>Countries</t>
   </si>
@@ -49,349 +49,424 @@
     <t>QKS</t>
   </si>
   <si>
-    <t>0.97(0.1)*</t>
-  </si>
-  <si>
-    <t>0.0029(1.0)</t>
-  </si>
-  <si>
-    <t>-2.14(0.0)***</t>
-  </si>
-  <si>
-    <t>2.14(0.3)</t>
-  </si>
-  <si>
-    <t>0.94(0.6)</t>
-  </si>
-  <si>
-    <t>-0.0059(0.1)*</t>
-  </si>
-  <si>
-    <t>-2.58(0.2)</t>
-  </si>
-  <si>
-    <t>2.58(0.6)</t>
-  </si>
-  <si>
-    <t>0.97(0.3)</t>
-  </si>
-  <si>
-    <t>-0.0033(0.0)***</t>
-  </si>
-  <si>
-    <t>-1.34(0.3)</t>
-  </si>
-  <si>
-    <t>2.96(0.1)*</t>
+    <t>0.97(0.209)</t>
+  </si>
+  <si>
+    <t>0.0029(0.966)</t>
+  </si>
+  <si>
+    <t>-2.14(0.179)</t>
+  </si>
+  <si>
+    <t>2.14(0.68)</t>
+  </si>
+  <si>
+    <t>0.94(0.282)</t>
+  </si>
+  <si>
+    <t>-0.0059(0.061)*</t>
+  </si>
+  <si>
+    <t>-2.58(0.03)**</t>
+  </si>
+  <si>
+    <t>2.58(0.313)</t>
+  </si>
+  <si>
+    <t>0.97(0.156)</t>
+  </si>
+  <si>
+    <t>-0.0033(0.069)*</t>
+  </si>
+  <si>
+    <t>-1.34(0.322)</t>
+  </si>
+  <si>
+    <t>2.96(0.281)</t>
   </si>
   <si>
     <t>0.94(0.1)*</t>
   </si>
   <si>
-    <t>0.0021(0.9)</t>
-  </si>
-  <si>
-    <t>-2.13(0.1)*</t>
-  </si>
-  <si>
-    <t>3.82(0.0)***</t>
-  </si>
-  <si>
-    <t>1.0(0.9)</t>
-  </si>
-  <si>
-    <t>-0.005(0.0)***</t>
-  </si>
-  <si>
-    <t>0.22(0.9)</t>
-  </si>
-  <si>
-    <t>5.26(0.0)***</t>
-  </si>
-  <si>
-    <t>0.98(0.1)*</t>
-  </si>
-  <si>
-    <t>0.0013(1.0)</t>
-  </si>
-  <si>
-    <t>-2.14(0.1)*</t>
-  </si>
-  <si>
-    <t>0.98(0.8)</t>
-  </si>
-  <si>
-    <t>-0.0028(0.1)*</t>
-  </si>
-  <si>
-    <t>-2.2(0.1)*</t>
-  </si>
-  <si>
-    <t>0.98(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0029(0.0)***</t>
-  </si>
-  <si>
-    <t>-2.1(0.2)</t>
-  </si>
-  <si>
-    <t>0.95(0.0)***</t>
-  </si>
-  <si>
-    <t>0.0014(0.9)</t>
-  </si>
-  <si>
-    <t>-3.82(0.0)***</t>
-  </si>
-  <si>
-    <t>1.0(0.5)</t>
-  </si>
-  <si>
-    <t>-0.0031(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.37(0.6)</t>
-  </si>
-  <si>
-    <t>0.99(0.1)*</t>
-  </si>
-  <si>
-    <t>0.0006(0.8)</t>
-  </si>
-  <si>
-    <t>-1.66(0.3)</t>
-  </si>
-  <si>
-    <t>0.99(0.9)</t>
-  </si>
-  <si>
-    <t>-0.0022(0.1)*</t>
-  </si>
-  <si>
-    <t>-1.88(0.3)</t>
-  </si>
-  <si>
-    <t>-0.0019(0.0)***</t>
-  </si>
-  <si>
-    <t>-1.69(0.3)</t>
-  </si>
-  <si>
-    <t>0.97(0.0)***</t>
-  </si>
-  <si>
-    <t>-2.36(0.1)*</t>
-  </si>
-  <si>
-    <t>0.99(0.2)</t>
-  </si>
-  <si>
-    <t>-0.0015(0.0)***</t>
-  </si>
-  <si>
-    <t>-1.4(0.4)</t>
-  </si>
-  <si>
-    <t>0.99(0.4)</t>
-  </si>
-  <si>
-    <t>0.0004(1.0)</t>
-  </si>
-  <si>
-    <t>-1.09(0.6)</t>
-  </si>
-  <si>
-    <t>0.99(0.7)</t>
-  </si>
-  <si>
-    <t>-0.0013(0.2)</t>
-  </si>
-  <si>
-    <t>-2.14(0.5)</t>
-  </si>
-  <si>
-    <t>-0.0014(0.0)***</t>
-  </si>
-  <si>
-    <t>-2.34(0.2)</t>
-  </si>
-  <si>
-    <t>-0.0001(0.5)</t>
-  </si>
-  <si>
-    <t>-2.07(0.1)*</t>
-  </si>
-  <si>
-    <t>-0.0(0.4)</t>
-  </si>
-  <si>
-    <t>-1.86(0.3)</t>
-  </si>
-  <si>
-    <t>1.0(0.7)</t>
-  </si>
-  <si>
-    <t>-0.0001(0.9)</t>
-  </si>
-  <si>
-    <t>-0.13(0.8)</t>
-  </si>
-  <si>
-    <t>1.0(1.0)</t>
-  </si>
-  <si>
-    <t>-0.0003(0.3)</t>
-  </si>
-  <si>
-    <t>-0.48(0.8)</t>
-  </si>
-  <si>
-    <t>-2.96(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.0006(0.3)</t>
-  </si>
-  <si>
-    <t>-2.32(0.0)***</t>
-  </si>
-  <si>
-    <t>0.0001(0.5)</t>
-  </si>
-  <si>
-    <t>-3.23(0.1)*</t>
-  </si>
-  <si>
-    <t>-0.0003(0.5)</t>
-  </si>
-  <si>
-    <t>-0.9(0.4)</t>
-  </si>
-  <si>
-    <t>-0.0012(0.2)</t>
-  </si>
-  <si>
-    <t>-0.98(0.9)</t>
-  </si>
-  <si>
-    <t>-0.0011(0.0)***</t>
-  </si>
-  <si>
-    <t>-2.42(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.001(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.88(0.7)</t>
-  </si>
-  <si>
-    <t>0.0004(0.6)</t>
-  </si>
-  <si>
-    <t>-5.26(0.0)***</t>
-  </si>
-  <si>
-    <t>0.99(0.3)</t>
-  </si>
-  <si>
-    <t>-0.0008(0.2)</t>
-  </si>
-  <si>
-    <t>-0.98(0.3)</t>
-  </si>
-  <si>
-    <t>0.01(0.9)</t>
-  </si>
-  <si>
-    <t>-0.0009(0.1)*</t>
-  </si>
-  <si>
-    <t>-1.13(0.4)</t>
-  </si>
-  <si>
-    <t>-0.0005(0.3)</t>
-  </si>
-  <si>
-    <t>-1.44(0.4)</t>
-  </si>
-  <si>
-    <t>0.0006(0.7)</t>
-  </si>
-  <si>
-    <t>-3.94(0.2)</t>
-  </si>
-  <si>
-    <t>1.0(0.8)</t>
-  </si>
-  <si>
-    <t>-0.0016(0.3)</t>
-  </si>
-  <si>
-    <t>-0.4(0.8)</t>
-  </si>
-  <si>
-    <t>-0.04(1.0)</t>
-  </si>
-  <si>
-    <t>1.0(0.6)</t>
-  </si>
-  <si>
-    <t>-0.0002(0.5)</t>
-  </si>
-  <si>
-    <t>-0.33(0.8)</t>
-  </si>
-  <si>
-    <t>-0.0009(0.2)</t>
-  </si>
-  <si>
-    <t>-0.32(0.7)</t>
-  </si>
-  <si>
-    <t>0.0006(0.6)</t>
-  </si>
-  <si>
-    <t>-3.58(0.1)*</t>
-  </si>
-  <si>
-    <t>1.0(0.4)</t>
-  </si>
-  <si>
-    <t>-0.0026(0.0)***</t>
-  </si>
-  <si>
-    <t>-0.32(0.4)</t>
-  </si>
-  <si>
-    <t>1.01(1.0)</t>
-  </si>
-  <si>
-    <t>-0.0029(0.2)</t>
-  </si>
-  <si>
-    <t>0.64(1.0)</t>
-  </si>
-  <si>
-    <t>0.0005(0.9)</t>
-  </si>
-  <si>
-    <t>0.79(0.9)</t>
-  </si>
-  <si>
-    <t>-0.0017(0.2)</t>
-  </si>
-  <si>
-    <t>0.23(0.9)</t>
-  </si>
-  <si>
-    <t>0.96(0.1)*</t>
-  </si>
-  <si>
-    <t>0.0014(0.5)</t>
-  </si>
-  <si>
-    <t>-2.65(0.2)</t>
+    <t>0.0021(0.852)</t>
+  </si>
+  <si>
+    <t>-2.13(0.191)</t>
+  </si>
+  <si>
+    <t>3.82(0.115)</t>
+  </si>
+  <si>
+    <t>1.0(0.947)</t>
+  </si>
+  <si>
+    <t>-0.005(0.089)*</t>
+  </si>
+  <si>
+    <t>0.22(0.912)</t>
+  </si>
+  <si>
+    <t>5.26(0.021)**</t>
+  </si>
+  <si>
+    <t>0.98(0.27)</t>
+  </si>
+  <si>
+    <t>0.0013(0.898)</t>
+  </si>
+  <si>
+    <t>-2.14(0.235)</t>
+  </si>
+  <si>
+    <t>0.98(0.506)</t>
+  </si>
+  <si>
+    <t>-0.0028(0.034)**</t>
+  </si>
+  <si>
+    <t>-2.2(0.121)</t>
+  </si>
+  <si>
+    <t>0.98(0.114)</t>
+  </si>
+  <si>
+    <t>-0.0029(0.019)**</t>
+  </si>
+  <si>
+    <t>-2.1(0.186)</t>
+  </si>
+  <si>
+    <t>0.95(0.037)**</t>
+  </si>
+  <si>
+    <t>0.0014(0.871)</t>
+  </si>
+  <si>
+    <t>-3.82(0.024)**</t>
+  </si>
+  <si>
+    <t>1.0(0.687)</t>
+  </si>
+  <si>
+    <t>-0.0031(0.063)*</t>
+  </si>
+  <si>
+    <t>-0.37(0.771)</t>
+  </si>
+  <si>
+    <t>0.99(0.343)</t>
+  </si>
+  <si>
+    <t>0.0006(0.748)</t>
+  </si>
+  <si>
+    <t>-1.66(0.37)</t>
+  </si>
+  <si>
+    <t>0.99(0.539)</t>
+  </si>
+  <si>
+    <t>-0.0022(0.039)**</t>
+  </si>
+  <si>
+    <t>-1.88(0.269)</t>
+  </si>
+  <si>
+    <t>0.99(0.181)</t>
+  </si>
+  <si>
+    <t>-0.0019(0.035)**</t>
+  </si>
+  <si>
+    <t>-1.69(0.345)</t>
+  </si>
+  <si>
+    <t>0.97(0.101)</t>
+  </si>
+  <si>
+    <t>0.0006(0.75)</t>
+  </si>
+  <si>
+    <t>-2.36(0.168)</t>
+  </si>
+  <si>
+    <t>0.99(0.245)</t>
+  </si>
+  <si>
+    <t>-0.0015(0.128)</t>
+  </si>
+  <si>
+    <t>-1.4(0.46)</t>
+  </si>
+  <si>
+    <t>0.99(0.584)</t>
+  </si>
+  <si>
+    <t>0.0004(0.7)</t>
+  </si>
+  <si>
+    <t>-1.09(0.625)</t>
+  </si>
+  <si>
+    <t>0.99(0.444)</t>
+  </si>
+  <si>
+    <t>-0.0013(0.086)*</t>
+  </si>
+  <si>
+    <t>-2.14(0.148)</t>
+  </si>
+  <si>
+    <t>0.98(0.041)**</t>
+  </si>
+  <si>
+    <t>-0.0014(0.053)*</t>
+  </si>
+  <si>
+    <t>-2.34(0.161)</t>
+  </si>
+  <si>
+    <t>0.98(0.152)</t>
+  </si>
+  <si>
+    <t>-0.0001(0.467)</t>
+  </si>
+  <si>
+    <t>-2.07(0.286)</t>
+  </si>
+  <si>
+    <t>0.99(0.127)</t>
+  </si>
+  <si>
+    <t>-0.0(0.484)</t>
+  </si>
+  <si>
+    <t>-1.86(0.283)</t>
+  </si>
+  <si>
+    <t>1.0(0.863)</t>
+  </si>
+  <si>
+    <t>-0.0001(0.482)</t>
+  </si>
+  <si>
+    <t>-0.13(0.882)</t>
+  </si>
+  <si>
+    <t>1.0(0.758)</t>
+  </si>
+  <si>
+    <t>-0.0003(0.358)</t>
+  </si>
+  <si>
+    <t>-0.48(0.701)</t>
+  </si>
+  <si>
+    <t>0.98(0.019)**</t>
+  </si>
+  <si>
+    <t>-0.0015(0.036)**</t>
+  </si>
+  <si>
+    <t>-2.96(0.069)*</t>
+  </si>
+  <si>
+    <t>0.98(0.149)</t>
+  </si>
+  <si>
+    <t>-0.0006(0.262)</t>
+  </si>
+  <si>
+    <t>-2.32(0.262)</t>
+  </si>
+  <si>
+    <t>0.98(0.048)**</t>
+  </si>
+  <si>
+    <t>0.0001(0.537)</t>
+  </si>
+  <si>
+    <t>-3.23(0.072)*</t>
+  </si>
+  <si>
+    <t>0.99(0.606)</t>
+  </si>
+  <si>
+    <t>-0.0003(0.381)</t>
+  </si>
+  <si>
+    <t>-0.9(0.704)</t>
+  </si>
+  <si>
+    <t>1.0(0.691)</t>
+  </si>
+  <si>
+    <t>-0.0012(0.071)*</t>
+  </si>
+  <si>
+    <t>-0.98(0.542)</t>
+  </si>
+  <si>
+    <t>0.98(0.052)*</t>
+  </si>
+  <si>
+    <t>-0.0011(0.109)</t>
+  </si>
+  <si>
+    <t>-2.42(0.181)</t>
+  </si>
+  <si>
+    <t>0.99(0.531)</t>
+  </si>
+  <si>
+    <t>-0.001(0.164)</t>
+  </si>
+  <si>
+    <t>-0.88(0.724)</t>
+  </si>
+  <si>
+    <t>0.98(0.003)***</t>
+  </si>
+  <si>
+    <t>0.0004(0.754)</t>
+  </si>
+  <si>
+    <t>-5.26(0.005)***</t>
+  </si>
+  <si>
+    <t>0.99(0.628)</t>
+  </si>
+  <si>
+    <t>-0.0008(0.184)</t>
+  </si>
+  <si>
+    <t>-0.98(0.648)</t>
+  </si>
+  <si>
+    <t>1.0(0.812)</t>
+  </si>
+  <si>
+    <t>-0.0008(0.14)</t>
+  </si>
+  <si>
+    <t>0.01(0.814)</t>
+  </si>
+  <si>
+    <t>0.99(0.215)</t>
+  </si>
+  <si>
+    <t>-0.0009(0.139)</t>
+  </si>
+  <si>
+    <t>-1.13(0.443)</t>
+  </si>
+  <si>
+    <t>0.99(0.32)</t>
+  </si>
+  <si>
+    <t>-0.0005(0.281)</t>
+  </si>
+  <si>
+    <t>-1.44(0.508)</t>
+  </si>
+  <si>
+    <t>0.97(0.006)***</t>
+  </si>
+  <si>
+    <t>0.0006(0.76)</t>
+  </si>
+  <si>
+    <t>-3.94(0.028)**</t>
+  </si>
+  <si>
+    <t>1.0(0.764)</t>
+  </si>
+  <si>
+    <t>-0.0016(0.106)</t>
+  </si>
+  <si>
+    <t>-0.4(0.799)</t>
+  </si>
+  <si>
+    <t>1.0(0.791)</t>
+  </si>
+  <si>
+    <t>-0.0013(0.073)*</t>
+  </si>
+  <si>
+    <t>-0.04(0.794)</t>
+  </si>
+  <si>
+    <t>1.0(0.668)</t>
+  </si>
+  <si>
+    <t>-0.0002(0.467)</t>
+  </si>
+  <si>
+    <t>-0.33(0.751)</t>
+  </si>
+  <si>
+    <t>1.0(0.72)</t>
+  </si>
+  <si>
+    <t>-0.0009(0.164)</t>
+  </si>
+  <si>
+    <t>-0.32(0.83)</t>
+  </si>
+  <si>
+    <t>0.97(0.018)**</t>
+  </si>
+  <si>
+    <t>0.0006(0.721)</t>
+  </si>
+  <si>
+    <t>-3.58(0.017)**</t>
+  </si>
+  <si>
+    <t>1.0(0.735)</t>
+  </si>
+  <si>
+    <t>-0.0026(0.08)*</t>
+  </si>
+  <si>
+    <t>-0.32(0.75)</t>
+  </si>
+  <si>
+    <t>1.01(0.877)</t>
+  </si>
+  <si>
+    <t>-0.0029(0.089)*</t>
+  </si>
+  <si>
+    <t>0.64(0.917)</t>
+  </si>
+  <si>
+    <t>1.01(0.98)</t>
+  </si>
+  <si>
+    <t>0.0005(0.668)</t>
+  </si>
+  <si>
+    <t>0.79(0.947)</t>
+  </si>
+  <si>
+    <t>1.0(0.906)</t>
+  </si>
+  <si>
+    <t>-0.0017(0.191)</t>
+  </si>
+  <si>
+    <t>0.23(0.886)</t>
+  </si>
+  <si>
+    <t>0.96(0.075)*</t>
+  </si>
+  <si>
+    <t>0.0014(0.72)</t>
+  </si>
+  <si>
+    <t>-2.65(0.051)*</t>
   </si>
 </sst>
 </file>
@@ -807,22 +882,22 @@
         <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="I2" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="J2" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="K2" t="s">
-        <v>113</v>
+        <v>136</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -840,22 +915,22 @@
         <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G3" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="J3" t="s">
-        <v>103</v>
+        <v>122</v>
       </c>
       <c r="K3" t="s">
-        <v>114</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -873,22 +948,22 @@
         <v>48</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I4" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="J4" t="s">
-        <v>104</v>
+        <v>123</v>
       </c>
       <c r="K4" t="s">
-        <v>115</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -917,22 +992,22 @@
         <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="K6" t="s">
-        <v>116</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -950,22 +1025,22 @@
         <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G7" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s">
-        <v>84</v>
+        <v>95</v>
       </c>
       <c r="I7" t="s">
-        <v>93</v>
+        <v>110</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>125</v>
       </c>
       <c r="K7" t="s">
-        <v>117</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -983,22 +1058,22 @@
         <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="I8" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="K8" t="s">
-        <v>118</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -1024,25 +1099,25 @@
         <v>37</v>
       </c>
       <c r="E10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="G10" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>37</v>
+        <v>97</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="J10" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -1057,25 +1132,25 @@
         <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G11" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="I11" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="K11" t="s">
-        <v>119</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -1090,25 +1165,25 @@
         <v>39</v>
       </c>
       <c r="E12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G12" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H12" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="I12" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="J12" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -1134,25 +1209,25 @@
         <v>40</v>
       </c>
       <c r="E14" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="G14" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="H14" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="I14" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="J14" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="K14" t="s">
-        <v>74</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -1167,25 +1242,25 @@
         <v>41</v>
       </c>
       <c r="E15" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G15" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="H15" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="I15" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="J15" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -1200,25 +1275,25 @@
         <v>42</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G16" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="I16" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="J16" t="s">
-        <v>110</v>
+        <v>132</v>
       </c>
       <c r="K16" t="s">
-        <v>122</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -1244,25 +1319,25 @@
         <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F18" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="G18" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="H18" t="s">
-        <v>37</v>
+        <v>103</v>
       </c>
       <c r="I18" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="J18" t="s">
-        <v>54</v>
+        <v>133</v>
       </c>
       <c r="K18" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1277,25 +1352,25 @@
         <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F19" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="G19" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="H19" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="I19" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="J19" t="s">
-        <v>111</v>
+        <v>134</v>
       </c>
       <c r="K19" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1310,25 +1385,25 @@
         <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F20" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="G20" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="H20" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="I20" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="J20" t="s">
-        <v>112</v>
+        <v>135</v>
       </c>
       <c r="K20" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:11">
